--- a/biology/Médecine/Carl_Gustav_Carus/Carl_Gustav_Carus.xlsx
+++ b/biology/Médecine/Carl_Gustav_Carus/Carl_Gustav_Carus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Gustav Carus né le 3 janvier 1789 à Leipzig et mort le 28 juillet 1869 à Dresde est un médecin et peintre saxon.
 Il s'est intéressé à la psychologie et à l'étude de l'âme dans une perspective romantique. Sa philosophie relève de la naturphilosophie et son esthétique du romantisme allemand. Il excella en médecine générale, obstétrique, physiologie animale, anatomie, botanique, géologie, peinture de paysage, esthétique de la peinture romantique, philosophie.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Gustav Carus naît en 1789 à Leipzig, ville de l'Électorat de Saxe.
 Encore élève à Leipzig, il prend de Julius Diez (en) des leçons de dessin ; il étudie ensuite avec Johann Veit Schnorr von Carolsfeld (1764–1841) à l'Académie de dessin. À l'université de Leipzig, il étudie la physique, la botanique, la chimie, la médecine.
 En 1811, à 22 ans, il est reçu, après six années d'études, docteur en médecine et docteur en philosophie. Dès cette année, le premier, il enseigne à l'université l'anatomie comparée et avec quelques camarades fonde une société savante, l'Académie de Médecine de Dresde. À partir de 1813, il enseigne la peinture à l'huile selon la technique du paysagiste Johann Christian Klengel, de Dresde.
-Lors de la bataille de Leipzig, en octobre 1813, il contracte le typhus[1].
+Lors de la bataille de Leipzig, en octobre 1813, il contracte le typhus.
 À Dresde, en Saxe, dès 1814, sous le règne de Frédéric-Auguste Ier, il est professeur d’obstétrique à l'Académie royale médico-chirurgicale et, jusqu'en 1827, directeur de l'Hôpital de maternité. Il se lie, en 1817, au peintre et graveur Caspar David Friedrich (1774-1840), célèbre pour ses paysages romantiques.
 En 1819, sur l'île de Rügen, Carus fait l'expérience romantique du paysage :
 « Là, je découvris un endroit où, le vent d’est animant plus fortement les flots, les vagues roulaient plus haut leur masse brune, se déversaient en écume et, se régénérant sans cesse, se fracassaient contre le sable de la côte. Je voulais jeter quelques études sur le papier, mais à peine eus-je esquissé quelques traits que je lançai mon carton au loin, persuadé qu’ici chaque trait était une profanation de ce phénomène qui laisse pantelant d’émotion et, bouleversé, je demeurais les yeux fixés sur ce combat grandiose entre les éléments. »
@@ -566,7 +580,9 @@
           <t>Anatomie philosophique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1818, C. G. Carus défend dans Traité élémentaire d’anatomie comparée une conception hiérarchique du monde animal. Il s’appuie, au plan anatomique, sur une théorie de la constitution de l’endosquelette par la répétition des segments : le tronc résulterait du développement des protovertèbres (côtes), la tête du développement des deutovertèbres (vertèbres crâniennes), et les membres de celui des tritovertèbres (os de membres). Comme chez Oken on trouve chez Carus la volonté de faire correspondre la hiérarchie des structures (les trois types de vertèbres) à celle des fonctions physiologiques (végétative, locomotrice et sensorielle). Ainsi, chez l’animal le plus élevé, le tronc est caractérisé par la vie végétative, la tête par la vie sensitive, et les membres par la vie locomotive. « Le squelette des animaux supérieurs est en quelque sorte l’empreinte solidifiée du système nerveux » ajoute-t-il : c’est la raison pour laquelle aux trois parties des « masses cérébrales » correspondent un nombre égal de vertèbres crâniennes. À ces dernières, s’ajoutent trois vertèbres « faciales » et quatre vertèbres « intermédiaires », Carus dénombre finalement comme Goethe dans la constitution du crâne six vertèbres céphaliques auxquelles s’ajoutent quatre « vertèbres intermédiaires » dont le rang est moins élevé.
 </t>
@@ -597,7 +613,9 @@
           <t>Naturphilosophie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Grand métaphysicien de la vie (Psyche, 1846 ; Symbolik der menschlichen Gestalt, 1853), désireux de marquer ses distances à l'égard du panthéisme, c'est lui qui crée les mots d' "enthéisme" et de "panenthéisme" pour préciser que si le divin est en toute chose, tout n'est pas en Dieu » (Antoine Faivre).
 Carus est le premier théoricien de l'inconscient. « Il se représente l'univers comme un organisme où la nature et l'esprit sont unis au sein d'un Inconscient auquel l'homme participe par son corps et par son propre inconscient ; mais la conscience de l'individu rompt souvent cette harmonie, et nos maladies ne font qu'exprimer la rupture du lien originel qui unit le corps à l'âme » (Antoine Faivre).
@@ -630,9 +648,11 @@
           <t>Esthétique de la peinture de paysage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans ses Neuf lettres sur la peinture de paysage (Neun Briefe über Landschaftsmalerei, 1831), C. G. Carus élabore la théorie esthétique de la peinture de paysage propre au romantisme allemand. Si l'expéditeur et le destinataire de cette correspondance sont respectivement dénommés Ernst et Albert en hommage à son fils Ernst-Albrecht mort à l'âge de 4 ans, le théoricien écrit en réalité à son ami le traducteur Johann Gottlob Regis. Malgré ce procédé qui peut sembler artificiel, les lettres possèdent un caractère historique avéré[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ses Neuf lettres sur la peinture de paysage (Neun Briefe über Landschaftsmalerei, 1831), C. G. Carus élabore la théorie esthétique de la peinture de paysage propre au romantisme allemand. Si l'expéditeur et le destinataire de cette correspondance sont respectivement dénommés Ernst et Albert en hommage à son fils Ernst-Albrecht mort à l'âge de 4 ans, le théoricien écrit en réalité à son ami le traducteur Johann Gottlob Regis. Malgré ce procédé qui peut sembler artificiel, les lettres possèdent un caractère historique avéré. 
 Il conçoit la peinture comme une révélation de l'invisible. Grâce à l'œuvre, la nature est saisie dans une fusion autant physique que mystique. Il y a Erdlebenerlebnis, expérience de communion avec la vie de la terre.
 « Quels sentiments s’emparent de toi lorsque gravissant le sommet des montagnes, tu contemples de là-haut la longue suite des collines, le cours des fleuves et le spectacle glorieux qui s’ouvre devant toi ? — tu te recueilles dans le silence, tu te perds toi-même dans l’infinité de l’espace, tu sens le calme limpide et la pureté envahir ton être, tu oublies ton moi. Tu n’es rien, Dieu est tout. »
 </t>
@@ -663,12 +683,14 @@
           <t>Carus peintre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Carus a peint environ 400 tableaux. Ses œuvres sont conservées dans les musées de Düsseldorf (Paysage alpin, 1822 ; Promenade en barque sur l'Elbe, 1827), Dresde (neuf paysages, dont Les Chênes au bord de la mer), Karlsruhe (Atelier au clair de lune, 1826), Leipzig (Le Cimetière d'Oybin, vers 1828) et Hambourg.
-Haute montagne, vers 1824, huile sur toile, 136 × 171 cm), Essen, musée Folkwang[3].
-L'Intérieur de la Palm House sur l'Île aux Paons près de Potsdam, 1834, huile sur toile, 135 × 126 cm, Art Institute of Chicago[4].
-Les Cloches au petit matin, 1840, Essen, musée Folkwang[5].
+Haute montagne, vers 1824, huile sur toile, 136 × 171 cm), Essen, musée Folkwang.
+L'Intérieur de la Palm House sur l'Île aux Paons près de Potsdam, 1834, huile sur toile, 135 × 126 cm, Art Institute of Chicago.
+Les Cloches au petit matin, 1840, Essen, musée Folkwang.
 	Œuvres de Carl Gustav Carus
 			Pèlerin dans une vallée rocheuse, vers 1820, Berlin, Alte Nationalgalerie.
 			Soirée au bord de la mer, vers 1820-1825, Kunsthalle de Brême.
@@ -708,8 +730,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sciences naturelles
-Lehrbuch der Zootomie (1818, 1834).
+          <t>Sciences naturelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lehrbuch der Zootomie (1818, 1834).
 Erläuterungstafeln zur vergleichenden Anatomie (1826–1855).
 Von den äussern Lebensbedingungen der weiss- und kaltblütigen Thiere (1824).
 Über den Blutkreislauf der Insekten (1827).
@@ -717,15 +744,83 @@
 Neu Untersuchungen über die Entwicklungsgeschichte unserer Flussmushel (Nouvelles enquêtes sur l'histoire évolutive de notre moule de rivière — Nova Acta Caesar. Leop. Carol. 16: 1-80, PL 1-4 (1832).
 Lehrbuch der Physiologie für Naturforscher und Aerzte (1838)- also medical
 Zwölf Briefe über das Erdleben (1841).
-Natur und Idee oder das Werdende und sein Gesetz. 1861.
-Médecine
-Lehrbuch der Gynäkologie (1820, 1838).
+Natur und Idee oder das Werdende und sein Gesetz. 1861.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lehrbuch der Gynäkologie (1820, 1838).
 Grundzüge einer neuen und wissenschaftlich begründeten Cranioscopie (Schädellehre) (1841).
 System der Physiologie (1847–1849).
 Erfahrungsresultate aus ärztlichen Studien und ärztlichem Wirken während eines halben Jahrhunderts (1859).
-Neuer Atlas der Cranioskopie (1864).
-Psychologie, physiognomonie, étude de l'âme
-Vorlesungen über Psychologie (1831).
+Neuer Atlas der Cranioskopie (1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Psychologie, physiognomonie, étude de l'âme</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vorlesungen über Psychologie (1831).
 Psyche. Zur Entwicklungsgeschichte der Seele (1846, 1851).
 Ueber Grund und Bedeutung der verschiedenen Formen der Hand in veschiedenen Personen (Sur le fondement et la signification des différentes formes de mains chez différentes personnes) (1846).
 Physis. Zur Geschichte des leiblichen Lebens (1851).
@@ -734,13 +829,81 @@
 Über die typisch gewordenen Abbildungen menschlicher Kopfformen (1863).
 Goethe, dessen Bedeutung für unsere und die kommende Zeit (1863).
 (de) Carl Gustav Carus, Pensées et Souvenirs [« Lebenserinnerungen und Denkwürdigkeiten »], Weimar, Gustav Kiepenheuer Verlag, 1865-1866 (réimpr. 1966), 2 volumes (lire en ligne)
-Vergleichende Psychologie oder Geschichte der Seele in der Reihenfolge der Thierwelt (1866).
-Art
-Briefe über Landschaftsmalerei. Zuvor ein Brief von Goethe als Einleitung (1819–1831).
+Vergleichende Psychologie oder Geschichte der Seele in der Reihenfolge der Thierwelt (1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Briefe über Landschaftsmalerei. Zuvor ein Brief von Goethe als Einleitung (1819–1831).
 Die Lebenskunst nach den Inschriften des Tempels zu Delphi (1863).
-Betrachtungen und Gedanken vor auserwählten Bildern der Dresdener Galerie (1867).
-Traductions en français
-De la peinture de paysage dans l'Allemagne romantique, Klincksieck, 1983 : Neuf lettres sur la peinture de paysage (1831), Physiognomonie de la montagne, et plusieurs extraits des écrits et lettres de Caspar David Friedrich.
+Betrachtungen und Gedanken vor auserwählten Bildern der Dresdener Galerie (1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Gustav_Carus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>De la peinture de paysage dans l'Allemagne romantique, Klincksieck, 1983 : Neuf lettres sur la peinture de paysage (1831), Physiognomonie de la montagne, et plusieurs extraits des écrits et lettres de Caspar David Friedrich.
 Voyage à l'île de Rügen. Sur les traces de Caspar David Friedrich, Charenton, Premières pierres, 1999, 61 p. Extrait des Mémoires de Carus.
 Traité élémentaire d'Anatomie Comparée: Suivi de Recherches d'Anatomie Philosophique Ou Transcendante Sur Les Parties Primaires Du Système Nerveux, trad. 1835, Nabu Press, 2010.</t>
         </is>
